--- a/list-of-metro-systems.xlsx
+++ b/list-of-metro-systems.xlsx
@@ -5,22 +5,30 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bekirarslan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bekirarslan/Documents/GitHub/flourish-list-of-metro-systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC90BD-FD92-E840-BAE5-6F7008307E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DCC7E4-7072-9B45-A3B0-BA6C7E2B704D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="413">
   <si>
     <t>City</t>
   </si>
@@ -1257,6 +1265,9 @@
   </si>
   <si>
     <t>Washington, D,C,</t>
+  </si>
+  <si>
+    <t>Daily Ridership</t>
   </si>
 </sst>
 </file>
@@ -1608,10 +1619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J49" sqref="J15:J49"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1623,9 +1634,10 @@
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1650,8 +1662,11 @@
       <c r="H1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1676,8 +1691,12 @@
       <c r="H2">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <f>H2/365</f>
+        <v>0.1095890410958904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1702,8 +1721,12 @@
       <c r="H3">
         <v>337.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">H3/365</f>
+        <v>0.92520547945205478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1728,8 +1751,12 @@
       <c r="H4">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>5.1232876712328762E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1754,8 +1781,12 @@
       <c r="H5">
         <v>14.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>3.8904109589041093E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1780,8 +1811,12 @@
       <c r="H6">
         <v>463.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.2687671232876714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1806,8 +1841,12 @@
       <c r="H7">
         <v>231</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.63287671232876708</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1832,8 +1871,12 @@
       <c r="H8">
         <v>283.39999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.7764383561643835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1858,8 +1901,12 @@
       <c r="H9">
         <v>147.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.40301369863013697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1884,8 +1931,12 @@
       <c r="H10">
         <v>58.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.1610958904109589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1910,8 +1961,12 @@
       <c r="H11">
         <v>40.200000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.11013698630136987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1936,8 +1991,12 @@
       <c r="H12">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.14164383561643837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1962,8 +2021,12 @@
       <c r="H13">
         <v>104.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.28547945205479452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1988,8 +2051,12 @@
       <c r="H14">
         <v>242.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>0.66410958904109596</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2014,8 +2081,12 @@
       <c r="H15">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>0.23561643835616439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2040,8 +2111,12 @@
       <c r="H16">
         <v>1358.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>3.7221917808219174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2066,8 +2141,12 @@
       <c r="H17">
         <v>91.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0.24958904109589039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2171,12 @@
       <c r="H18">
         <v>383.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.0495890410958906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2118,8 +2201,12 @@
       <c r="H19">
         <v>416.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1.1402739726027398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2144,8 +2231,12 @@
       <c r="H20">
         <v>160</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>0.43835616438356162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2170,8 +2261,12 @@
       <c r="H21">
         <v>721</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1.9753424657534246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -2196,8 +2291,12 @@
       <c r="H22">
         <v>3850</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>10.547945205479452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>57</v>
       </c>
@@ -2222,8 +2321,12 @@
       <c r="H23">
         <v>127.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>0.34876712328767123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -2248,8 +2351,12 @@
       <c r="H24">
         <v>250.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>0.68575342465753431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2268,11 +2375,15 @@
       <c r="G25">
         <v>34.24</v>
       </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2297,8 +2408,12 @@
       <c r="H26">
         <v>1158</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>3.1726027397260275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2323,8 +2438,12 @@
       <c r="H27">
         <v>857.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>2.3504109589041096</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -2349,8 +2468,12 @@
       <c r="H28">
         <v>192.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>0.5268493150684932</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -2375,8 +2498,12 @@
       <c r="H29">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>0.12630136986301371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -2398,11 +2525,15 @@
       <c r="G30">
         <v>34.4</v>
       </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2427,8 +2558,12 @@
       <c r="H31">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>0.16684931506849315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2453,8 +2588,12 @@
       <c r="H32">
         <v>3029.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -2479,8 +2618,12 @@
       <c r="H33">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>2.0273972602739727E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -2505,8 +2648,12 @@
       <c r="H34">
         <v>529.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1.4517808219178081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -2531,8 +2678,12 @@
       <c r="H35">
         <v>97.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>0.26684931506849319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -2554,8 +2705,12 @@
       <c r="H36">
         <v>153.19999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>0.41972602739726023</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2574,11 +2729,15 @@
       <c r="G37">
         <v>21.72</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -2603,8 +2762,12 @@
       <c r="H38">
         <v>1805.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>4.9454794520547942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2623,11 +2786,15 @@
       <c r="G39">
         <v>47.7</v>
       </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -2652,8 +2819,12 @@
       <c r="H40">
         <v>199.6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>0.5468493150684931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -2675,11 +2846,15 @@
       <c r="G41">
         <v>25.9</v>
       </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>95</v>
       </c>
@@ -2698,11 +2873,15 @@
       <c r="G42">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>97</v>
       </c>
@@ -2727,8 +2906,12 @@
       <c r="H43">
         <v>141.80000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>0.38849315068493157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -2753,8 +2936,12 @@
       <c r="H44">
         <v>1118.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>3.0652054794520547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>101</v>
       </c>
@@ -2779,8 +2966,12 @@
       <c r="H45">
         <v>213.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>0.58520547945205481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -2805,8 +2996,12 @@
       <c r="H46">
         <v>124.4</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>0.34082191780821919</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>105</v>
       </c>
@@ -2831,8 +3026,12 @@
       <c r="H47">
         <v>153.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>0.42164383561643837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -2857,8 +3056,12 @@
       <c r="H48">
         <v>3710</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>10.164383561643836</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2883,8 +3086,12 @@
       <c r="H49">
         <v>316</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>0.86575342465753424</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -2909,8 +3116,12 @@
       <c r="H50">
         <v>1877.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>5.1438356164383565</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -2935,8 +3146,12 @@
       <c r="H51">
         <v>87.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -2961,8 +3176,12 @@
       <c r="H52">
         <v>324.89999999999998</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>0.89013698630136984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>117</v>
       </c>
@@ -2987,8 +3206,12 @@
       <c r="H53">
         <v>408.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>1.1191780821917807</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3013,8 +3236,12 @@
       <c r="H54">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>6.5753424657534242E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>121</v>
       </c>
@@ -3033,11 +3260,15 @@
       <c r="G55">
         <v>53.5</v>
       </c>
-      <c r="H55" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>123</v>
       </c>
@@ -3062,8 +3293,12 @@
       <c r="H56">
         <v>1054</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>2.8876712328767122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -3088,8 +3323,12 @@
       <c r="H57">
         <v>103.1</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>0.28246575342465752</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>127</v>
       </c>
@@ -3111,8 +3350,12 @@
       <c r="H58">
         <v>41.6</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>0.11397260273972604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>129</v>
       </c>
@@ -3137,8 +3380,12 @@
       <c r="H59">
         <v>746.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>2.0443835616438357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>131</v>
       </c>
@@ -3157,11 +3404,15 @@
       <c r="G60">
         <v>22</v>
       </c>
-      <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>133</v>
       </c>
@@ -3186,8 +3437,12 @@
       <c r="H61">
         <v>293.39999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>0.8038356164383561</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>135</v>
       </c>
@@ -3212,8 +3467,12 @@
       <c r="H62">
         <v>206.1</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>0.56465753424657528</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>138</v>
       </c>
@@ -3238,8 +3497,12 @@
       <c r="H63">
         <v>435.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>1.1934246575342466</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3264,8 +3527,12 @@
       <c r="H64">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0.17726027397260274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>144</v>
       </c>
@@ -3290,8 +3557,12 @@
       <c r="H65">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0.23863013698630137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>147</v>
       </c>
@@ -3316,8 +3587,12 @@
       <c r="H66">
         <v>1314</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -3342,8 +3617,12 @@
       <c r="H67">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="1">H67/365</f>
+        <v>0.18493150684931506</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -3368,8 +3647,12 @@
       <c r="H68">
         <v>119.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>0.32849315068493151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>156</v>
       </c>
@@ -3394,8 +3677,12 @@
       <c r="H69">
         <v>212.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>0.58191780821917805</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>158</v>
       </c>
@@ -3420,8 +3707,12 @@
       <c r="H70">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>0.20876712328767125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>160</v>
       </c>
@@ -3446,8 +3737,12 @@
       <c r="H71">
         <v>1559.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>4.2726027397260271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>162</v>
       </c>
@@ -3472,8 +3767,12 @@
       <c r="H72">
         <v>35.200000000000003</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>9.6438356164383565E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -3498,8 +3797,12 @@
       <c r="H73">
         <v>110.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>0.30219178082191778</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>166</v>
       </c>
@@ -3524,8 +3827,12 @@
       <c r="H74">
         <v>125.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>0.3443835616438356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>169</v>
       </c>
@@ -3550,8 +3857,12 @@
       <c r="H75">
         <v>563</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>1.5424657534246575</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -3576,8 +3887,12 @@
       <c r="H76">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>0.66438356164383561</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -3602,8 +3917,12 @@
       <c r="H77">
         <v>410</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>1.1232876712328768</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>176</v>
       </c>
@@ -3628,8 +3947,12 @@
       <c r="H78">
         <v>128.85</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>0.35301369863013699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>178</v>
       </c>
@@ -3654,8 +3977,12 @@
       <c r="H79">
         <v>261.8</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>0.71726027397260272</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -3680,8 +4007,12 @@
       <c r="H80">
         <v>321.39999999999998</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>0.88054794520547941</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>184</v>
       </c>
@@ -3703,11 +4034,15 @@
       <c r="G81">
         <v>6.5</v>
       </c>
-      <c r="H81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -3732,8 +4067,12 @@
       <c r="H82">
         <v>133.69999999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>0.36630136986301365</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -3758,8 +4097,12 @@
       <c r="H83">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>3.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -3784,8 +4127,12 @@
       <c r="H84">
         <v>926.1</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>2.5372602739726027</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>193</v>
       </c>
@@ -3810,8 +4157,12 @@
       <c r="H85">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>6.3013698630136981E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>195</v>
       </c>
@@ -3836,8 +4187,12 @@
       <c r="H86">
         <v>30</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -3862,8 +4217,12 @@
       <c r="H87">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>1.6986301369863014E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>199</v>
       </c>
@@ -3885,8 +4244,12 @@
       <c r="H88">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>4.5479452054794527E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>201</v>
       </c>
@@ -3911,8 +4274,12 @@
       <c r="H89">
         <v>213.3</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>0.58438356164383565</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>203</v>
       </c>
@@ -3934,11 +4301,15 @@
       <c r="G90">
         <v>22.87</v>
       </c>
-      <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>205</v>
       </c>
@@ -3963,8 +4334,12 @@
       <c r="H91">
         <v>100</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>0.27397260273972601</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>207</v>
       </c>
@@ -3983,11 +4358,15 @@
       <c r="G92">
         <v>24.5</v>
       </c>
-      <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>209</v>
       </c>
@@ -4006,11 +4385,15 @@
       <c r="G93">
         <v>29.7</v>
       </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -4029,11 +4412,15 @@
       <c r="G94">
         <v>15.7</v>
       </c>
-      <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -4055,11 +4442,15 @@
       <c r="G95">
         <v>20.2</v>
       </c>
-      <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -4084,8 +4475,12 @@
       <c r="H96">
         <v>44.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>0.12164383561643835</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>219</v>
       </c>
@@ -4110,8 +4505,12 @@
       <c r="H97">
         <v>18</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>4.9315068493150684E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>221</v>
       </c>
@@ -4133,11 +4532,15 @@
       <c r="G98">
         <v>11</v>
       </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>223</v>
       </c>
@@ -4162,8 +4565,12 @@
       <c r="H99">
         <v>820</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>2.2465753424657535</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>225</v>
       </c>
@@ -4188,8 +4595,12 @@
       <c r="H100">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>4.9589041095890414E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>228</v>
       </c>
@@ -4214,8 +4625,12 @@
       <c r="H101">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>1.589041095890411E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>230</v>
       </c>
@@ -4240,8 +4655,12 @@
       <c r="H102">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>4.1917808219178086E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -4266,8 +4685,12 @@
       <c r="H103">
         <v>369</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>1.010958904109589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -4292,8 +4715,12 @@
       <c r="H104">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>0.11643835616438356</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -4318,8 +4745,12 @@
       <c r="H105">
         <v>320</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>0.87671232876712324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>238</v>
       </c>
@@ -4344,8 +4775,12 @@
       <c r="H106">
         <v>42.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>0.11643835616438356</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>240</v>
       </c>
@@ -4370,8 +4805,12 @@
       <c r="H107">
         <v>171.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>0.47013698630136985</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>243</v>
       </c>
@@ -4396,8 +4835,12 @@
       <c r="H108">
         <v>23.9</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>6.5479452054794524E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>245</v>
       </c>
@@ -4422,8 +4865,12 @@
       <c r="H109">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0.31369863013698629</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>247</v>
       </c>
@@ -4448,8 +4895,12 @@
       <c r="H110">
         <v>144.69999999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>0.39643835616438355</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>249</v>
       </c>
@@ -4474,8 +4925,12 @@
       <c r="H111">
         <v>487.6</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>1.3358904109589043</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>251</v>
       </c>
@@ -4500,8 +4955,12 @@
       <c r="H112">
         <v>870.4</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>2.3846575342465752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>253</v>
       </c>
@@ -4526,8 +4985,12 @@
       <c r="H113">
         <v>229.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>0.62931506849315066</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>255</v>
       </c>
@@ -4552,8 +5015,12 @@
       <c r="H114">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>0.24904109589041099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>257</v>
       </c>
@@ -4578,8 +5045,12 @@
       <c r="H115">
         <v>1029.8</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>2.8213698630136985</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>257</v>
       </c>
@@ -4604,8 +5075,12 @@
       <c r="H116">
         <v>2766.2</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>7.5786301369863009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>257</v>
       </c>
@@ -4630,8 +5105,12 @@
       <c r="H117">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>0.24849315068493152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>261</v>
       </c>
@@ -4656,8 +5135,12 @@
       <c r="H118">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>0.66986301369863011</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>261</v>
       </c>
@@ -4682,8 +5165,12 @@
       <c r="H119">
         <v>79.2</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>0.21698630136986302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>264</v>
       </c>
@@ -4708,8 +5195,12 @@
       <c r="H120">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>4.0547945205479455E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>267</v>
       </c>
@@ -4734,8 +5225,12 @@
       <c r="H121">
         <v>199.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>0.54657534246575346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -4760,8 +5255,12 @@
       <c r="H122">
         <v>1647</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>4.5123287671232877</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>273</v>
       </c>
@@ -4786,8 +5285,12 @@
       <c r="H123">
         <v>180.8</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>0.49534246575342467</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>275</v>
       </c>
@@ -4812,8 +5315,12 @@
       <c r="H124">
         <v>90.3</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>0.2473972602739726</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -4838,8 +5345,12 @@
       <c r="H125">
         <v>93</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>0.25479452054794521</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -4864,8 +5375,12 @@
       <c r="H126">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>0.33424657534246577</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>283</v>
       </c>
@@ -4887,8 +5402,12 @@
       <c r="H127">
         <v>85.7</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>0.23479452054794522</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>286</v>
       </c>
@@ -4913,8 +5432,12 @@
       <c r="H128">
         <v>110.4</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>0.30246575342465754</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -4939,8 +5462,12 @@
       <c r="H129">
         <v>243.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>0.66739726027397261</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>289</v>
       </c>
@@ -4965,8 +5492,12 @@
       <c r="H130">
         <v>158.80000000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>0.43506849315068497</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -4991,8 +5522,12 @@
       <c r="H131">
         <v>189.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I131">
+        <f t="shared" ref="I131:I180" si="2">H131/365</f>
+        <v>0.5194520547945205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>296</v>
       </c>
@@ -5017,8 +5552,12 @@
       <c r="H132">
         <v>169</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>0.46301369863013697</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>299</v>
       </c>
@@ -5040,11 +5579,15 @@
       <c r="G133">
         <v>76</v>
       </c>
-      <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>302</v>
       </c>
@@ -5069,8 +5612,12 @@
       <c r="H134">
         <v>178.9</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>0.49013698630136987</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>305</v>
       </c>
@@ -5095,8 +5642,12 @@
       <c r="H135">
         <v>29</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>7.9452054794520555E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>308</v>
       </c>
@@ -5121,8 +5672,12 @@
       <c r="H136">
         <v>2432</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>6.6630136986301371</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>310</v>
       </c>
@@ -5147,8 +5702,12 @@
       <c r="H137">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>8.109589041095891E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>312</v>
       </c>
@@ -5173,8 +5732,12 @@
       <c r="H138">
         <v>83.1</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>0.22767123287671232</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>314</v>
       </c>
@@ -5199,8 +5762,12 @@
       <c r="H139">
         <v>743</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>2.0356164383561643</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>316</v>
       </c>
@@ -5225,8 +5792,12 @@
       <c r="H140">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>3.7808219178082192E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>318</v>
       </c>
@@ -5251,8 +5822,12 @@
       <c r="H141">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>0.1326027397260274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>320</v>
       </c>
@@ -5277,8 +5852,12 @@
       <c r="H142">
         <v>4</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>1.0958904109589041E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>323</v>
       </c>
@@ -5303,8 +5882,12 @@
       <c r="H143">
         <v>1205.5999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>3.3030136986301368</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>325</v>
       </c>
@@ -5329,8 +5912,12 @@
       <c r="H144">
         <v>407.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>1.1164383561643836</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>328</v>
       </c>
@@ -5355,8 +5942,12 @@
       <c r="H145">
         <v>89.9</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>0.24630136986301371</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>330</v>
       </c>
@@ -5381,8 +5972,12 @@
       <c r="H146">
         <v>657.2</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>1.8005479452054796</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>332</v>
       </c>
@@ -5407,8 +6002,12 @@
       <c r="H147">
         <v>355</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>0.9726027397260274</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>335</v>
       </c>
@@ -5433,8 +6032,12 @@
       <c r="H148">
         <v>30.1</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>8.2465753424657534E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>338</v>
       </c>
@@ -5459,8 +6062,12 @@
       <c r="H149">
         <v>240.1</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>0.65780821917808219</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>338</v>
       </c>
@@ -5485,8 +6092,12 @@
       <c r="H150">
         <v>113.7</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>0.3115068493150685</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>342</v>
       </c>
@@ -5511,8 +6122,12 @@
       <c r="H151">
         <v>14</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>3.8356164383561646E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>345</v>
       </c>
@@ -5537,8 +6152,12 @@
       <c r="H152">
         <v>131</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>0.35890410958904112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>347</v>
       </c>
@@ -5563,8 +6182,12 @@
       <c r="H153">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>0.25013698630136988</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>349</v>
       </c>
@@ -5589,8 +6212,12 @@
       <c r="H154">
         <v>495.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>1.3572602739726027</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>351</v>
       </c>
@@ -5615,8 +6242,12 @@
       <c r="H155">
         <v>120</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>0.32876712328767121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>353</v>
       </c>
@@ -5641,8 +6272,12 @@
       <c r="H156">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>2.0547945205479451E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>356</v>
       </c>
@@ -5667,8 +6302,12 @@
       <c r="H157">
         <v>223</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>0.61095890410958908</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>358</v>
       </c>
@@ -5693,8 +6332,12 @@
       <c r="H158">
         <v>496.1</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>1.3591780821917809</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>360</v>
       </c>
@@ -5719,8 +6362,12 @@
       <c r="H159">
         <v>204.4</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>363</v>
       </c>
@@ -5745,8 +6392,12 @@
       <c r="H160">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>3.5890410958904106E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>366</v>
       </c>
@@ -5771,8 +6422,12 @@
       <c r="H161">
         <v>1384</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>3.7917808219178082</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>366</v>
       </c>
@@ -5797,8 +6452,12 @@
       <c r="H162">
         <v>121.8</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>0.33369863013698631</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>369</v>
       </c>
@@ -5823,8 +6482,12 @@
       <c r="H163">
         <v>36.4</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>9.9726027397260275E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>371</v>
       </c>
@@ -5849,8 +6512,12 @@
       <c r="H164">
         <v>64.900000000000006</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>0.17780821917808221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>374</v>
       </c>
@@ -5875,8 +6542,12 @@
       <c r="H165">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>2.2739726027397263E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>376</v>
       </c>
@@ -5901,8 +6572,12 @@
       <c r="H166">
         <v>155.69999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>0.4265753424657534</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>378</v>
       </c>
@@ -5927,8 +6602,12 @@
       <c r="H167">
         <v>225.9</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>0.61890410958904107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>380</v>
       </c>
@@ -5953,8 +6632,12 @@
       <c r="H168">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>1.6986301369863014E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>382</v>
       </c>
@@ -5979,8 +6662,12 @@
       <c r="H169">
         <v>43.3</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I169">
+        <f t="shared" si="2"/>
+        <v>0.11863013698630136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>384</v>
       </c>
@@ -6005,8 +6692,12 @@
       <c r="H170">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I170">
+        <f t="shared" si="2"/>
+        <v>5.2876712328767124E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>386</v>
       </c>
@@ -6031,8 +6722,12 @@
       <c r="H171">
         <v>1680.1</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I171">
+        <f t="shared" si="2"/>
+        <v>4.6030136986301367</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>386</v>
       </c>
@@ -6057,8 +6752,12 @@
       <c r="H172">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I172">
+        <f t="shared" si="2"/>
+        <v>2.2191780821917806E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>386</v>
       </c>
@@ -6083,8 +6782,12 @@
       <c r="H173">
         <v>91.2</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I173">
+        <f t="shared" si="2"/>
+        <v>0.24986301369863015</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>390</v>
       </c>
@@ -6109,8 +6812,12 @@
       <c r="H174">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I174">
+        <f t="shared" si="2"/>
+        <v>0.25616438356164384</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>390</v>
       </c>
@@ -6135,8 +6842,12 @@
       <c r="H175">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I175">
+        <f t="shared" si="2"/>
+        <v>2.9589041095890414E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>393</v>
       </c>
@@ -6161,8 +6872,12 @@
       <c r="H176">
         <v>125.6</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I176">
+        <f t="shared" si="2"/>
+        <v>0.3441095890410959</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>395</v>
       </c>
@@ -6187,8 +6902,12 @@
       <c r="H177">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I177">
+        <f t="shared" si="2"/>
+        <v>1.4246575342465755E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>411</v>
       </c>
@@ -6213,8 +6932,12 @@
       <c r="H178">
         <v>226.3</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I178">
+        <f t="shared" si="2"/>
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>398</v>
       </c>
@@ -6239,8 +6962,12 @@
       <c r="H179">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I179">
+        <f t="shared" si="2"/>
+        <v>0.18931506849315066</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>401</v>
       </c>
@@ -6264,6 +6991,10 @@
       </c>
       <c r="H180">
         <v>358</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="2"/>
+        <v>0.98082191780821915</v>
       </c>
     </row>
   </sheetData>
